--- a/biology/Zoologie/Erigone_(genre)/Erigone_(genre).xlsx
+++ b/biology/Zoologie/Erigone_(genre)/Erigone_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erigone est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erigone est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Europe, en Asie, en Afrique et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Europe, en Asie, en Afrique et en Océanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles du genre Erigone sont remarquables par les épines qu'ils portent sur leur céphalothorax et les tibias de leurs pédipalpes. 
 </t>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées prédatrices, elles ont pour proies de petits insectes comme les psylles et les diptères.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 08/06/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 08/06/2023) :
 Erigone acuta Tanasevitch, 2021
 Erigone albescens Banks, 1898
 Erigone aletris Crosby &amp; Bishop, 1928
@@ -710,7 +730,7 @@
 Erigone wiltoni Locket, 1973
 Erigone zabluta Keyserling, 1886
 Erigone zheduoshanensis Song &amp; Li, 2008
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Erigone dechenii Bertkau, 1878</t>
         </is>
       </c>
@@ -739,10 +759,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Audouin en 1826.
-Son espèce type est Erigone longipalpis[3].
+Son espèce type est Erigone longipalpis.
 </t>
         </is>
       </c>
@@ -771,7 +793,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Audouin, 1826 : « Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. » Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française, publié par les ordres de sa Majesté l'Empereur Napoléon le Grand. Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
